--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>56072008-4135-4e17-99d8-a9e1162c8e1b</t>
+          <t>005afe06-e40f-4bc7-8354-978434ea0ec7</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>876e74cb-9fce-480d-a716-d21bb100daaf</t>
+          <t>8946a530-8fcf-4f8e-b5f8-c69fd11545fd</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>d4e4990f-54b3-4f54-9f46-45a9b964211e</t>
+          <t>7e91cf25-221f-46c9-8662-d30cd1c79ee8</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>a5d69bc7-52bf-4ef7-b26f-56f10a297b2e</t>
+          <t>f3b67b35-7b16-4260-9563-526f8b17d2b3</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>b8f18412-5f3c-4d5c-8246-fd6805e92ad6</t>
+          <t>97809a06-cf35-484b-b2cc-d73ec6bcbb7d</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>269c5153-cb97-464b-a5d6-b12bf6d37821</t>
+          <t>ce059007-ea78-4ee0-baca-c1f469e0291c</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>54c60300-1b66-4389-8400-6e2b98c8c342</t>
+          <t>ae422992-f301-4497-a9af-287aae0d68a1</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>d0107297-5f00-4471-b73c-3fe9f982b4ee</t>
+          <t>1c130e70-026f-4077-8177-aaf5ab3e874d</t>
         </is>
       </c>
     </row>

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>38b2854f-b4d1-4dae-af16-0d2ac548ebf2</t>
+          <t>ccf32fc0-16c3-440e-bd20-8bb9f6a43cfc</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>a59af5f6-03fb-46b1-a813-1326658f8e19</t>
+          <t>114b79e3-b00c-4d19-86d5-675a978ad81c</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>c6ea95e1-d179-4791-b8ed-41ae3f4a46d2</t>
+          <t>b7256469-b2d0-412c-9161-b5786ed2a24f</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>e9418ac7-266d-4a0c-a92e-7af749974f1f</t>
+          <t>b80f4db3-5c7b-4d79-975c-16258af454e6</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>d67d80b6-5fee-4c2b-b151-c3255e75ce0c</t>
+          <t>c13c8b34-7012-41f2-8369-a241a41be1c2</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>eacce186-851f-4b08-a976-31c844973d91</t>
+          <t>c120c08a-f35b-4ddc-88dc-9b5e6283cd1f</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>5893564e-f090-4ae5-a2a7-888c2985d523</t>
+          <t>1bbb07b7-5378-42bf-905e-ba776decc517</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>eaab7cfd-2184-4c61-91ee-f0d111c572df</t>
+          <t>1566267e-da23-4d5d-93e8-47465bc4b2b4</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>b399e2b2-3f70-4b1a-9844-b2700655c983</t>
+          <t>b2d6bfe1-b2c8-4247-96d3-28981d87e78f</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>064bd731-9710-4886-867b-aaaa7eceae03</t>
+          <t>d605c9c7-6125-4d64-b3b3-7008bdc58e48</t>
         </is>
       </c>
     </row>

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>ccf32fc0-16c3-440e-bd20-8bb9f6a43cfc</t>
+          <t>5fdca92a-f187-41e3-af1f-265571aaa096</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>114b79e3-b00c-4d19-86d5-675a978ad81c</t>
+          <t>91595076-978e-4d04-903d-89151a7ec38b</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>b7256469-b2d0-412c-9161-b5786ed2a24f</t>
+          <t>28e9320b-af72-47fe-b2c6-fe6fd2f677bf</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>b80f4db3-5c7b-4d79-975c-16258af454e6</t>
+          <t>1f0b8d0d-6ea8-4a6d-a4b9-6ffbff4c09f4</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>c13c8b34-7012-41f2-8369-a241a41be1c2</t>
+          <t>0655ccf2-4716-458f-943a-bc3f8080a139</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>c120c08a-f35b-4ddc-88dc-9b5e6283cd1f</t>
+          <t>2ab29181-d7eb-4795-8bc9-6c3d130d9c0a</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>1bbb07b7-5378-42bf-905e-ba776decc517</t>
+          <t>171072dc-be63-4e31-8fec-15f54531b3c6</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>1566267e-da23-4d5d-93e8-47465bc4b2b4</t>
+          <t>70ec6b70-b67f-4090-b435-ba05a2e3546a</t>
         </is>
       </c>
     </row>
@@ -676,7 +676,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>кг: (г 1000.0)</t>
+          <t>кг: (гр 1000.0)</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -691,7 +691,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>b2d6bfe1-b2c8-4247-96d3-28981d87e78f</t>
+          <t>9ce3e660-d71c-455e-b7ea-3fd182540752</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>d605c9c7-6125-4d64-b3b3-7008bdc58e48</t>
+          <t>cc580d3d-3ba7-4ddc-960f-54c50ff7adb6</t>
         </is>
       </c>
     </row>

--- a/reports/report.xlsx
+++ b/reports/report.xlsx
@@ -475,7 +475,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>5fdca92a-f187-41e3-af1f-265571aaa096</t>
+          <t>1980581b-0134-4d7d-8f69-2aadf712b969</t>
         </is>
       </c>
     </row>
@@ -502,7 +502,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>91595076-978e-4d04-903d-89151a7ec38b</t>
+          <t>f6c539cc-89da-46a1-b505-f61ba44a953c</t>
         </is>
       </c>
     </row>
@@ -529,7 +529,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>28e9320b-af72-47fe-b2c6-fe6fd2f677bf</t>
+          <t>0cabc833-94d8-4239-89d4-cbe91c0a5d25</t>
         </is>
       </c>
     </row>
@@ -556,7 +556,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>1f0b8d0d-6ea8-4a6d-a4b9-6ffbff4c09f4</t>
+          <t>6c04bc2b-d9f7-425b-bd5c-522d44756179</t>
         </is>
       </c>
     </row>
@@ -583,7 +583,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>0655ccf2-4716-458f-943a-bc3f8080a139</t>
+          <t>0fa36ce1-7e31-412a-a11f-6980abf6781c</t>
         </is>
       </c>
     </row>
@@ -610,7 +610,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>2ab29181-d7eb-4795-8bc9-6c3d130d9c0a</t>
+          <t>f7c1abfb-496a-4aee-a32f-c6d9f0469dbf</t>
         </is>
       </c>
     </row>
@@ -637,7 +637,7 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>171072dc-be63-4e31-8fec-15f54531b3c6</t>
+          <t>e10758a3-f640-46d1-a1eb-c62c4d972bcd</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>70ec6b70-b67f-4090-b435-ba05a2e3546a</t>
+          <t>c62811a2-ca85-4fa3-912f-1a06a2e55861</t>
         </is>
       </c>
     </row>
@@ -691,7 +691,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9ce3e660-d71c-455e-b7ea-3fd182540752</t>
+          <t>7907aed0-a6e6-4e85-943f-25337216c6ae</t>
         </is>
       </c>
     </row>
@@ -718,7 +718,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>cc580d3d-3ba7-4ddc-960f-54c50ff7adb6</t>
+          <t>1164f664-048b-4187-a0f5-7b365b0caa95</t>
         </is>
       </c>
     </row>
